--- a/Test/Rates.xlsx
+++ b/Test/Rates.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="From Interest Rate" sheetId="1" r:id="rId1"/>
     <sheet name="EAR" sheetId="3" r:id="rId2"/>
+    <sheet name="Payments" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t xml:space="preserve">Interest Rate = </t>
   </si>
@@ -56,6 +57,24 @@
   </si>
   <si>
     <t xml:space="preserve">Monthly Payment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payments Per Year = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years Left = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present Value = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Payment = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV Payments Forever = </t>
   </si>
 </sst>
 </file>
@@ -112,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -124,7 +143,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -142,6 +160,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +445,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,44 +453,44 @@
     <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9">
-        <v>0.21</v>
+      <c r="B1" s="8">
+        <v>0.14630000000000001</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5">
-        <v>0.1</v>
+      <c r="F1" s="11">
+        <v>0.14630000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
-        <v>2</v>
+      <c r="B2" s="7">
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <f>30/12</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+      <c r="B3" s="9">
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -483,20 +503,20 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>POWER(1+B1,B3/B2) - 1</f>
-        <v>7.9741404289037643E-3</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>4.5616850899263817E-3</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>F1/F3</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.2191666666666668E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3">
@@ -504,12 +524,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>POWER(1 + F4,F5) - 1</f>
-        <v>5.1053313320164939E-2</v>
+        <v>7.5416126645055925E-2</v>
       </c>
     </row>
   </sheetData>
@@ -522,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,16 +557,16 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>5.6250000000000001E-2</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>160000</v>
       </c>
     </row>
@@ -567,12 +587,158 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>PMT(POWER(1+B1, 1/B4) - 1,B3*B4,-B2,0)</f>
         <v>906.95591104335881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16">
+        <v>400</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="16">
+        <v>30000</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="16">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="17">
+        <f>PMT(H1/H3,10000,-H2)</f>
+        <v>400</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="17">
+        <f>PV(K1/K3,10000,-K2)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17">
+        <f>PV(B1/B4,B3*B4,-B2)</f>
+        <v>48000</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="17">
+        <f>PMT(E1/E4,E3*E4,-E2)</f>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Rates.xlsx
+++ b/Test/Rates.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="From Interest Rate" sheetId="1" r:id="rId1"/>
     <sheet name="EAR" sheetId="3" r:id="rId2"/>
     <sheet name="Payments" sheetId="4" r:id="rId3"/>
+    <sheet name="Inflation" sheetId="5" r:id="rId4"/>
+    <sheet name="Tax" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t xml:space="preserve">Interest Rate = </t>
   </si>
@@ -75,6 +77,30 @@
   </si>
   <si>
     <t xml:space="preserve">PV Payments Forever = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deductible Tax Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate adjusted for Tax = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payments per Period = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Tax Rate = </t>
   </si>
 </sst>
 </file>
@@ -131,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -162,6 +188,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,20 +568,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -561,38 +590,70 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="C1" s="15"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="13">
         <v>160000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <f>POWER(1 + (E1/E2),E2) - 1</f>
+        <v>6.1677811864497611E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="14">
         <f>PMT(POWER(1+B1, 1/B4) - 1,B3*B4,-B2,0)</f>
         <v>906.95591104335881</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="11">
+        <f>E3*(1-E4)</f>
+        <v>5.2426140084822971E-2</v>
       </c>
     </row>
   </sheetData>
@@ -604,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="11">
-        <v>0.1</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -722,7 +783,7 @@
       </c>
       <c r="K4" s="17">
         <f>PV(K1/K3,10000,-K2)</f>
-        <v>48000</v>
+        <v>69565.217391304337</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -739,6 +800,100 @@
       <c r="E5" s="17">
         <f>PMT(E1/E4,E3*E4,-E2)</f>
         <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11">
+        <f>(1+B1)*(1+B2)-1</f>
+        <v>7.9420999999999742E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(POWER(1+B1/B2,B2)-1)*(1-B3)</f>
+        <v>6.3897626307931651E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Rates.xlsx
+++ b/Test/Rates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="From Interest Rate" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="11">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -737,7 +737,8 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <f>39/12</f>
+        <v>3.25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -792,7 +793,7 @@
       </c>
       <c r="B5" s="17">
         <f>PV(B1/B4,B3*B4,-B2)</f>
-        <v>48000</v>
+        <v>30832.812026348834</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>

--- a/Test/Rates.xlsx
+++ b/Test/Rates.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Payments" sheetId="4" r:id="rId3"/>
     <sheet name="Inflation" sheetId="5" r:id="rId4"/>
     <sheet name="Tax" sheetId="6" r:id="rId5"/>
+    <sheet name="Exchange and Stock" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Interest Rate = </t>
   </si>
@@ -101,6 +102,69 @@
   </si>
   <si>
     <t xml:space="preserve">After Tax Rate = </t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate One = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate Two = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Cost = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shares = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share Price = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total  = </t>
+  </si>
+  <si>
+    <t>If forced to hold the stock</t>
+  </si>
+  <si>
+    <t>You cannot make a definitive decision but the stock bonus is not likely worth as much as the value calculated in part</t>
+  </si>
+  <si>
+    <t>You should consider the​ stock's potential value in one year along with the risk involved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Value = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV in dollars = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV in foreign currency = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Rate = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment in dollars = </t>
   </si>
 </sst>
 </file>
@@ -108,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +190,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -169,17 +239,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -190,6 +260,13 @@
     <xf numFmtId="40" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +550,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +559,7 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -666,7 +744,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="11">
-        <v>0.18</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -711,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="16">
-        <v>1050</v>
+        <v>176000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -737,8 +815,7 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <f>39/12</f>
-        <v>3.25</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -764,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -793,7 +870,7 @@
       </c>
       <c r="B5" s="17">
         <f>PV(B1/B4,B3*B4,-B2)</f>
-        <v>30832.812026348834</v>
+        <v>162993.14687905184</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -900,4 +977,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="16">
+        <v>1200000</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1">
+        <v>7.45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21">
+        <v>27.18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.05</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="14">
+        <f>B1/B2</f>
+        <v>44150.110375275937</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="20">
+        <f>F1/F2</f>
+        <v>1.4752475247524752</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="14">
+        <f>J1*J2</f>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="16">
+        <v>120000000</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="21">
+        <v>110</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="14">
+        <f>B5/B6</f>
+        <v>1090909.0909090908</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16">
+        <f>B3-B7</f>
+        <v>-1046758.9805338149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="21">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="14">
+        <f>PV(B13,B12,,-B14)</f>
+        <v>118110236.22047244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B15/B16</f>
+        <v>1073729.4201861131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="14">
+        <f>B17-B18</f>
+        <v>23729.4201861131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>